--- a/テンプレート/掲示用名列表.xlsx
+++ b/テンプレート/掲示用名列表.xlsx
@@ -49,7 +49,7 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -58,16 +58,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFCCCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FFE0E0"/>
+        <fgColor rgb="00F0F0F0"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -89,11 +84,39 @@
         <color rgb="00000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="00AAAAAA"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="hair">
+        <color rgb="00AAAAAA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -101,16 +124,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -478,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,12 +507,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="5" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="16" customWidth="1" min="3" max="3"/>
-    <col width="2" customWidth="1" min="4" max="4"/>
-    <col width="5" customWidth="1" min="5" max="5"/>
-    <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="16" customWidth="1" min="7" max="7"/>
+    <col width="27" customWidth="1" min="2" max="2"/>
+    <col width="2" customWidth="1" min="3" max="3"/>
+    <col width="5" customWidth="1" min="4" max="4"/>
+    <col width="27" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="42" customHeight="1">
@@ -510,677 +528,746 @@
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>ふりがな</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
           <t>氏名</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr"/>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>番号</t>
+        </is>
+      </c>
       <c r="E2" s="2" t="inlineStr">
         <is>
-          <t>番号</t>
-        </is>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>ふりがな</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
           <t>氏名</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="30" customHeight="1">
-      <c r="A3" s="4" t="inlineStr">
+    <row r="3" ht="11" customHeight="1">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>{{出席番号_1}}</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>{{氏名かな_1}}</t>
         </is>
       </c>
-      <c r="C3" s="6" t="inlineStr">
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>{{出席番号_21}}</t>
+        </is>
+      </c>
+      <c r="E3" s="4" t="inlineStr">
+        <is>
+          <t>{{氏名かな_21}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="25" customHeight="1">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>{{氏名_1}}</t>
         </is>
       </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>{{出席番号_21}}</t>
-        </is>
-      </c>
-      <c r="F3" s="5" t="inlineStr">
-        <is>
-          <t>{{氏名かな_21}}</t>
-        </is>
-      </c>
-      <c r="G3" s="6" t="inlineStr">
+      <c r="E4" s="5" t="inlineStr">
         <is>
           <t>{{氏名_21}}</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="30" customHeight="1">
-      <c r="A4" s="4" t="inlineStr">
+    <row r="5" ht="11" customHeight="1">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>{{出席番号_2}}</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>{{氏名かな_2}}</t>
         </is>
       </c>
-      <c r="C4" s="6" t="inlineStr">
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>{{出席番号_22}}</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>{{氏名かな_22}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="25" customHeight="1">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>{{氏名_2}}</t>
         </is>
       </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>{{出席番号_22}}</t>
-        </is>
-      </c>
-      <c r="F4" s="5" t="inlineStr">
-        <is>
-          <t>{{氏名かな_22}}</t>
-        </is>
-      </c>
-      <c r="G4" s="6" t="inlineStr">
+      <c r="E6" s="5" t="inlineStr">
         <is>
           <t>{{氏名_22}}</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="30" customHeight="1">
-      <c r="A5" s="4" t="inlineStr">
+    <row r="7" ht="11" customHeight="1">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>{{出席番号_3}}</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>{{氏名かな_3}}</t>
         </is>
       </c>
-      <c r="C5" s="6" t="inlineStr">
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>{{出席番号_23}}</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>{{氏名かな_23}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="25" customHeight="1">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>{{氏名_3}}</t>
         </is>
       </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>{{出席番号_23}}</t>
-        </is>
-      </c>
-      <c r="F5" s="5" t="inlineStr">
-        <is>
-          <t>{{氏名かな_23}}</t>
-        </is>
-      </c>
-      <c r="G5" s="6" t="inlineStr">
+      <c r="E8" s="5" t="inlineStr">
         <is>
           <t>{{氏名_23}}</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="30" customHeight="1">
-      <c r="A6" s="4" t="inlineStr">
+    <row r="9" ht="11" customHeight="1">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>{{出席番号_4}}</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>{{氏名かな_4}}</t>
         </is>
       </c>
-      <c r="C6" s="6" t="inlineStr">
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>{{出席番号_24}}</t>
+        </is>
+      </c>
+      <c r="E9" s="4" t="inlineStr">
+        <is>
+          <t>{{氏名かな_24}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="25" customHeight="1">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>{{氏名_4}}</t>
         </is>
       </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>{{出席番号_24}}</t>
-        </is>
-      </c>
-      <c r="F6" s="5" t="inlineStr">
-        <is>
-          <t>{{氏名かな_24}}</t>
-        </is>
-      </c>
-      <c r="G6" s="6" t="inlineStr">
+      <c r="E10" s="5" t="inlineStr">
         <is>
           <t>{{氏名_24}}</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="30" customHeight="1">
-      <c r="A7" s="4" t="inlineStr">
+    <row r="11" ht="11" customHeight="1">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>{{出席番号_5}}</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>{{氏名かな_5}}</t>
         </is>
       </c>
-      <c r="C7" s="6" t="inlineStr">
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>{{出席番号_25}}</t>
+        </is>
+      </c>
+      <c r="E11" s="4" t="inlineStr">
+        <is>
+          <t>{{氏名かな_25}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="25" customHeight="1">
+      <c r="B12" s="5" t="inlineStr">
         <is>
           <t>{{氏名_5}}</t>
         </is>
       </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>{{出席番号_25}}</t>
-        </is>
-      </c>
-      <c r="F7" s="5" t="inlineStr">
-        <is>
-          <t>{{氏名かな_25}}</t>
-        </is>
-      </c>
-      <c r="G7" s="6" t="inlineStr">
+      <c r="E12" s="5" t="inlineStr">
         <is>
           <t>{{氏名_25}}</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="30" customHeight="1">
-      <c r="A8" s="4" t="inlineStr">
+    <row r="13" ht="11" customHeight="1">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>{{出席番号_6}}</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>{{氏名かな_6}}</t>
         </is>
       </c>
-      <c r="C8" s="6" t="inlineStr">
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>{{出席番号_26}}</t>
+        </is>
+      </c>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>{{氏名かな_26}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="25" customHeight="1">
+      <c r="B14" s="5" t="inlineStr">
         <is>
           <t>{{氏名_6}}</t>
         </is>
       </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>{{出席番号_26}}</t>
-        </is>
-      </c>
-      <c r="F8" s="5" t="inlineStr">
-        <is>
-          <t>{{氏名かな_26}}</t>
-        </is>
-      </c>
-      <c r="G8" s="6" t="inlineStr">
+      <c r="E14" s="5" t="inlineStr">
         <is>
           <t>{{氏名_26}}</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="30" customHeight="1">
-      <c r="A9" s="4" t="inlineStr">
+    <row r="15" ht="11" customHeight="1">
+      <c r="A15" s="3" t="inlineStr">
         <is>
           <t>{{出席番号_7}}</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
+      <c r="B15" s="4" t="inlineStr">
         <is>
           <t>{{氏名かな_7}}</t>
         </is>
       </c>
-      <c r="C9" s="6" t="inlineStr">
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>{{出席番号_27}}</t>
+        </is>
+      </c>
+      <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t>{{氏名かな_27}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="25" customHeight="1">
+      <c r="B16" s="5" t="inlineStr">
         <is>
           <t>{{氏名_7}}</t>
         </is>
       </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>{{出席番号_27}}</t>
-        </is>
-      </c>
-      <c r="F9" s="5" t="inlineStr">
-        <is>
-          <t>{{氏名かな_27}}</t>
-        </is>
-      </c>
-      <c r="G9" s="6" t="inlineStr">
+      <c r="E16" s="5" t="inlineStr">
         <is>
           <t>{{氏名_27}}</t>
         </is>
       </c>
     </row>
-    <row r="10" ht="30" customHeight="1">
-      <c r="A10" s="4" t="inlineStr">
+    <row r="17" ht="11" customHeight="1">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>{{出席番号_8}}</t>
         </is>
       </c>
-      <c r="B10" s="5" t="inlineStr">
+      <c r="B17" s="4" t="inlineStr">
         <is>
           <t>{{氏名かな_8}}</t>
         </is>
       </c>
-      <c r="C10" s="6" t="inlineStr">
+      <c r="D17" s="3" t="inlineStr">
+        <is>
+          <t>{{出席番号_28}}</t>
+        </is>
+      </c>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>{{氏名かな_28}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="25" customHeight="1">
+      <c r="B18" s="5" t="inlineStr">
         <is>
           <t>{{氏名_8}}</t>
         </is>
       </c>
-      <c r="E10" s="4" t="inlineStr">
-        <is>
-          <t>{{出席番号_28}}</t>
-        </is>
-      </c>
-      <c r="F10" s="5" t="inlineStr">
-        <is>
-          <t>{{氏名かな_28}}</t>
-        </is>
-      </c>
-      <c r="G10" s="6" t="inlineStr">
+      <c r="E18" s="5" t="inlineStr">
         <is>
           <t>{{氏名_28}}</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="30" customHeight="1">
-      <c r="A11" s="4" t="inlineStr">
+    <row r="19" ht="11" customHeight="1">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>{{出席番号_9}}</t>
         </is>
       </c>
-      <c r="B11" s="5" t="inlineStr">
+      <c r="B19" s="4" t="inlineStr">
         <is>
           <t>{{氏名かな_9}}</t>
         </is>
       </c>
-      <c r="C11" s="6" t="inlineStr">
+      <c r="D19" s="3" t="inlineStr">
+        <is>
+          <t>{{出席番号_29}}</t>
+        </is>
+      </c>
+      <c r="E19" s="4" t="inlineStr">
+        <is>
+          <t>{{氏名かな_29}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="25" customHeight="1">
+      <c r="B20" s="5" t="inlineStr">
         <is>
           <t>{{氏名_9}}</t>
         </is>
       </c>
-      <c r="E11" s="4" t="inlineStr">
-        <is>
-          <t>{{出席番号_29}}</t>
-        </is>
-      </c>
-      <c r="F11" s="5" t="inlineStr">
-        <is>
-          <t>{{氏名かな_29}}</t>
-        </is>
-      </c>
-      <c r="G11" s="6" t="inlineStr">
+      <c r="E20" s="5" t="inlineStr">
         <is>
           <t>{{氏名_29}}</t>
         </is>
       </c>
     </row>
-    <row r="12" ht="30" customHeight="1">
-      <c r="A12" s="4" t="inlineStr">
+    <row r="21" ht="11" customHeight="1">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>{{出席番号_10}}</t>
         </is>
       </c>
-      <c r="B12" s="5" t="inlineStr">
+      <c r="B21" s="4" t="inlineStr">
         <is>
           <t>{{氏名かな_10}}</t>
         </is>
       </c>
-      <c r="C12" s="6" t="inlineStr">
+      <c r="D21" s="3" t="inlineStr">
+        <is>
+          <t>{{出席番号_30}}</t>
+        </is>
+      </c>
+      <c r="E21" s="4" t="inlineStr">
+        <is>
+          <t>{{氏名かな_30}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="25" customHeight="1">
+      <c r="B22" s="5" t="inlineStr">
         <is>
           <t>{{氏名_10}}</t>
         </is>
       </c>
-      <c r="E12" s="4" t="inlineStr">
-        <is>
-          <t>{{出席番号_30}}</t>
-        </is>
-      </c>
-      <c r="F12" s="5" t="inlineStr">
-        <is>
-          <t>{{氏名かな_30}}</t>
-        </is>
-      </c>
-      <c r="G12" s="6" t="inlineStr">
+      <c r="E22" s="5" t="inlineStr">
         <is>
           <t>{{氏名_30}}</t>
         </is>
       </c>
     </row>
-    <row r="13" ht="30" customHeight="1">
-      <c r="A13" s="4" t="inlineStr">
+    <row r="23" ht="11" customHeight="1">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>{{出席番号_11}}</t>
         </is>
       </c>
-      <c r="B13" s="5" t="inlineStr">
+      <c r="B23" s="4" t="inlineStr">
         <is>
           <t>{{氏名かな_11}}</t>
         </is>
       </c>
-      <c r="C13" s="6" t="inlineStr">
+      <c r="D23" s="3" t="inlineStr">
+        <is>
+          <t>{{出席番号_31}}</t>
+        </is>
+      </c>
+      <c r="E23" s="4" t="inlineStr">
+        <is>
+          <t>{{氏名かな_31}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="25" customHeight="1">
+      <c r="B24" s="5" t="inlineStr">
         <is>
           <t>{{氏名_11}}</t>
         </is>
       </c>
-      <c r="E13" s="4" t="inlineStr">
-        <is>
-          <t>{{出席番号_31}}</t>
-        </is>
-      </c>
-      <c r="F13" s="5" t="inlineStr">
-        <is>
-          <t>{{氏名かな_31}}</t>
-        </is>
-      </c>
-      <c r="G13" s="6" t="inlineStr">
+      <c r="E24" s="5" t="inlineStr">
         <is>
           <t>{{氏名_31}}</t>
         </is>
       </c>
     </row>
-    <row r="14" ht="30" customHeight="1">
-      <c r="A14" s="4" t="inlineStr">
+    <row r="25" ht="11" customHeight="1">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>{{出席番号_12}}</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>{{氏名かな_12}}</t>
         </is>
       </c>
-      <c r="C14" s="6" t="inlineStr">
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>{{出席番号_32}}</t>
+        </is>
+      </c>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t>{{氏名かな_32}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="25" customHeight="1">
+      <c r="B26" s="5" t="inlineStr">
         <is>
           <t>{{氏名_12}}</t>
         </is>
       </c>
-      <c r="E14" s="4" t="inlineStr">
-        <is>
-          <t>{{出席番号_32}}</t>
-        </is>
-      </c>
-      <c r="F14" s="5" t="inlineStr">
-        <is>
-          <t>{{氏名かな_32}}</t>
-        </is>
-      </c>
-      <c r="G14" s="6" t="inlineStr">
+      <c r="E26" s="5" t="inlineStr">
         <is>
           <t>{{氏名_32}}</t>
         </is>
       </c>
     </row>
-    <row r="15" ht="30" customHeight="1">
-      <c r="A15" s="4" t="inlineStr">
+    <row r="27" ht="11" customHeight="1">
+      <c r="A27" s="3" t="inlineStr">
         <is>
           <t>{{出席番号_13}}</t>
         </is>
       </c>
-      <c r="B15" s="5" t="inlineStr">
+      <c r="B27" s="4" t="inlineStr">
         <is>
           <t>{{氏名かな_13}}</t>
         </is>
       </c>
-      <c r="C15" s="6" t="inlineStr">
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>{{出席番号_33}}</t>
+        </is>
+      </c>
+      <c r="E27" s="4" t="inlineStr">
+        <is>
+          <t>{{氏名かな_33}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="25" customHeight="1">
+      <c r="B28" s="5" t="inlineStr">
         <is>
           <t>{{氏名_13}}</t>
         </is>
       </c>
-      <c r="E15" s="4" t="inlineStr">
-        <is>
-          <t>{{出席番号_33}}</t>
-        </is>
-      </c>
-      <c r="F15" s="5" t="inlineStr">
-        <is>
-          <t>{{氏名かな_33}}</t>
-        </is>
-      </c>
-      <c r="G15" s="6" t="inlineStr">
+      <c r="E28" s="5" t="inlineStr">
         <is>
           <t>{{氏名_33}}</t>
         </is>
       </c>
     </row>
-    <row r="16" ht="30" customHeight="1">
-      <c r="A16" s="4" t="inlineStr">
+    <row r="29" ht="11" customHeight="1">
+      <c r="A29" s="3" t="inlineStr">
         <is>
           <t>{{出席番号_14}}</t>
         </is>
       </c>
-      <c r="B16" s="5" t="inlineStr">
+      <c r="B29" s="4" t="inlineStr">
         <is>
           <t>{{氏名かな_14}}</t>
         </is>
       </c>
-      <c r="C16" s="6" t="inlineStr">
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>{{出席番号_34}}</t>
+        </is>
+      </c>
+      <c r="E29" s="4" t="inlineStr">
+        <is>
+          <t>{{氏名かな_34}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="25" customHeight="1">
+      <c r="B30" s="5" t="inlineStr">
         <is>
           <t>{{氏名_14}}</t>
         </is>
       </c>
-      <c r="E16" s="4" t="inlineStr">
-        <is>
-          <t>{{出席番号_34}}</t>
-        </is>
-      </c>
-      <c r="F16" s="5" t="inlineStr">
-        <is>
-          <t>{{氏名かな_34}}</t>
-        </is>
-      </c>
-      <c r="G16" s="6" t="inlineStr">
+      <c r="E30" s="5" t="inlineStr">
         <is>
           <t>{{氏名_34}}</t>
         </is>
       </c>
     </row>
-    <row r="17" ht="30" customHeight="1">
-      <c r="A17" s="4" t="inlineStr">
+    <row r="31" ht="11" customHeight="1">
+      <c r="A31" s="3" t="inlineStr">
         <is>
           <t>{{出席番号_15}}</t>
         </is>
       </c>
-      <c r="B17" s="5" t="inlineStr">
+      <c r="B31" s="4" t="inlineStr">
         <is>
           <t>{{氏名かな_15}}</t>
         </is>
       </c>
-      <c r="C17" s="6" t="inlineStr">
+      <c r="D31" s="3" t="inlineStr">
+        <is>
+          <t>{{出席番号_35}}</t>
+        </is>
+      </c>
+      <c r="E31" s="4" t="inlineStr">
+        <is>
+          <t>{{氏名かな_35}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="25" customHeight="1">
+      <c r="B32" s="5" t="inlineStr">
         <is>
           <t>{{氏名_15}}</t>
         </is>
       </c>
-      <c r="E17" s="4" t="inlineStr">
-        <is>
-          <t>{{出席番号_35}}</t>
-        </is>
-      </c>
-      <c r="F17" s="5" t="inlineStr">
-        <is>
-          <t>{{氏名かな_35}}</t>
-        </is>
-      </c>
-      <c r="G17" s="6" t="inlineStr">
+      <c r="E32" s="5" t="inlineStr">
         <is>
           <t>{{氏名_35}}</t>
         </is>
       </c>
     </row>
-    <row r="18" ht="30" customHeight="1">
-      <c r="A18" s="4" t="inlineStr">
+    <row r="33" ht="11" customHeight="1">
+      <c r="A33" s="3" t="inlineStr">
         <is>
           <t>{{出席番号_16}}</t>
         </is>
       </c>
-      <c r="B18" s="5" t="inlineStr">
+      <c r="B33" s="4" t="inlineStr">
         <is>
           <t>{{氏名かな_16}}</t>
         </is>
       </c>
-      <c r="C18" s="6" t="inlineStr">
+      <c r="D33" s="3" t="inlineStr">
+        <is>
+          <t>{{出席番号_36}}</t>
+        </is>
+      </c>
+      <c r="E33" s="4" t="inlineStr">
+        <is>
+          <t>{{氏名かな_36}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="34" ht="25" customHeight="1">
+      <c r="B34" s="5" t="inlineStr">
         <is>
           <t>{{氏名_16}}</t>
         </is>
       </c>
-      <c r="E18" s="4" t="inlineStr">
-        <is>
-          <t>{{出席番号_36}}</t>
-        </is>
-      </c>
-      <c r="F18" s="5" t="inlineStr">
-        <is>
-          <t>{{氏名かな_36}}</t>
-        </is>
-      </c>
-      <c r="G18" s="6" t="inlineStr">
+      <c r="E34" s="5" t="inlineStr">
         <is>
           <t>{{氏名_36}}</t>
         </is>
       </c>
     </row>
-    <row r="19" ht="30" customHeight="1">
-      <c r="A19" s="4" t="inlineStr">
+    <row r="35" ht="11" customHeight="1">
+      <c r="A35" s="3" t="inlineStr">
         <is>
           <t>{{出席番号_17}}</t>
         </is>
       </c>
-      <c r="B19" s="5" t="inlineStr">
+      <c r="B35" s="4" t="inlineStr">
         <is>
           <t>{{氏名かな_17}}</t>
         </is>
       </c>
-      <c r="C19" s="6" t="inlineStr">
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>{{出席番号_37}}</t>
+        </is>
+      </c>
+      <c r="E35" s="4" t="inlineStr">
+        <is>
+          <t>{{氏名かな_37}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="36" ht="25" customHeight="1">
+      <c r="B36" s="5" t="inlineStr">
         <is>
           <t>{{氏名_17}}</t>
         </is>
       </c>
-      <c r="E19" s="4" t="inlineStr">
-        <is>
-          <t>{{出席番号_37}}</t>
-        </is>
-      </c>
-      <c r="F19" s="5" t="inlineStr">
-        <is>
-          <t>{{氏名かな_37}}</t>
-        </is>
-      </c>
-      <c r="G19" s="6" t="inlineStr">
+      <c r="E36" s="5" t="inlineStr">
         <is>
           <t>{{氏名_37}}</t>
         </is>
       </c>
     </row>
-    <row r="20" ht="30" customHeight="1">
-      <c r="A20" s="4" t="inlineStr">
+    <row r="37" ht="11" customHeight="1">
+      <c r="A37" s="3" t="inlineStr">
         <is>
           <t>{{出席番号_18}}</t>
         </is>
       </c>
-      <c r="B20" s="5" t="inlineStr">
+      <c r="B37" s="4" t="inlineStr">
         <is>
           <t>{{氏名かな_18}}</t>
         </is>
       </c>
-      <c r="C20" s="6" t="inlineStr">
+      <c r="D37" s="3" t="inlineStr">
+        <is>
+          <t>{{出席番号_38}}</t>
+        </is>
+      </c>
+      <c r="E37" s="4" t="inlineStr">
+        <is>
+          <t>{{氏名かな_38}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="38" ht="25" customHeight="1">
+      <c r="B38" s="5" t="inlineStr">
         <is>
           <t>{{氏名_18}}</t>
         </is>
       </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t>{{出席番号_38}}</t>
-        </is>
-      </c>
-      <c r="F20" s="5" t="inlineStr">
-        <is>
-          <t>{{氏名かな_38}}</t>
-        </is>
-      </c>
-      <c r="G20" s="6" t="inlineStr">
+      <c r="E38" s="5" t="inlineStr">
         <is>
           <t>{{氏名_38}}</t>
         </is>
       </c>
     </row>
-    <row r="21" ht="30" customHeight="1">
-      <c r="A21" s="4" t="inlineStr">
+    <row r="39" ht="11" customHeight="1">
+      <c r="A39" s="3" t="inlineStr">
         <is>
           <t>{{出席番号_19}}</t>
         </is>
       </c>
-      <c r="B21" s="5" t="inlineStr">
+      <c r="B39" s="4" t="inlineStr">
         <is>
           <t>{{氏名かな_19}}</t>
         </is>
       </c>
-      <c r="C21" s="6" t="inlineStr">
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t>{{出席番号_39}}</t>
+        </is>
+      </c>
+      <c r="E39" s="4" t="inlineStr">
+        <is>
+          <t>{{氏名かな_39}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="25" customHeight="1">
+      <c r="B40" s="5" t="inlineStr">
         <is>
           <t>{{氏名_19}}</t>
         </is>
       </c>
-      <c r="E21" s="4" t="inlineStr">
-        <is>
-          <t>{{出席番号_39}}</t>
-        </is>
-      </c>
-      <c r="F21" s="5" t="inlineStr">
-        <is>
-          <t>{{氏名かな_39}}</t>
-        </is>
-      </c>
-      <c r="G21" s="6" t="inlineStr">
+      <c r="E40" s="5" t="inlineStr">
         <is>
           <t>{{氏名_39}}</t>
         </is>
       </c>
     </row>
-    <row r="22" ht="30" customHeight="1">
-      <c r="A22" s="4" t="inlineStr">
+    <row r="41" ht="11" customHeight="1">
+      <c r="A41" s="3" t="inlineStr">
         <is>
           <t>{{出席番号_20}}</t>
         </is>
       </c>
-      <c r="B22" s="5" t="inlineStr">
+      <c r="B41" s="4" t="inlineStr">
         <is>
           <t>{{氏名かな_20}}</t>
         </is>
       </c>
-      <c r="C22" s="6" t="inlineStr">
+      <c r="D41" s="3" t="inlineStr">
+        <is>
+          <t>{{出席番号_40}}</t>
+        </is>
+      </c>
+      <c r="E41" s="4" t="inlineStr">
+        <is>
+          <t>{{氏名かな_40}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="42" ht="25" customHeight="1">
+      <c r="B42" s="5" t="inlineStr">
         <is>
           <t>{{氏名_20}}</t>
         </is>
       </c>
-      <c r="E22" s="4" t="inlineStr">
-        <is>
-          <t>{{出席番号_40}}</t>
-        </is>
-      </c>
-      <c r="F22" s="5" t="inlineStr">
-        <is>
-          <t>{{氏名かな_40}}</t>
-        </is>
-      </c>
-      <c r="G22" s="6" t="inlineStr">
+      <c r="E42" s="5" t="inlineStr">
         <is>
           <t>{{氏名_40}}</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+  <mergeCells count="41">
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.39" right="0.39" top="0.39" bottom="0.39" header="0.2" footer="0.2"/>
+  <pageMargins left="0.2" right="0.2" top="0.2" bottom="0.2" header="0.1" footer="0.1"/>
   <pageSetup orientation="portrait" paperSize="9" fitToHeight="0" fitToWidth="1"/>
 </worksheet>
 </file>